--- a/data/trans_dic/MCS12_SP_R2-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/MCS12_SP_R2-Provincia-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.5615815470291646</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.3361477608350682</v>
+        <v>0.3361477608350683</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.5234118285338983</v>
@@ -697,7 +697,7 @@
         <v>0.6160020379905888</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.3442099330544582</v>
+        <v>0.3442099330544583</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.3574842555586789</v>
+        <v>0.3458276293867267</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.5007494192412847</v>
+        <v>0.4994571762622001</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.5040032004840976</v>
+        <v>0.4926363260973035</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.2895717988393067</v>
+        <v>0.285972560342238</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.4576741512358184</v>
+        <v>0.4590825844621271</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.6894783234577189</v>
+        <v>0.6881483717737982</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.61261364932976</v>
+        <v>0.6104367156099668</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.3116531812387521</v>
+        <v>0.3062391001030033</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.4225014139941363</v>
+        <v>0.4239973810325698</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.6117813591890066</v>
+        <v>0.6085820747373958</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.5710721075155123</v>
+        <v>0.5727945219911188</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.3116208374165829</v>
+        <v>0.3101801189614873</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.4728771945233606</v>
+        <v>0.4674820298028012</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.6206495656075043</v>
+        <v>0.6166557976580891</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.6232991115421509</v>
+        <v>0.6169779436946822</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.3953182675787992</v>
+        <v>0.3906043980078345</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.5849888188353065</v>
+        <v>0.589282053835725</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.8000935343498088</v>
+        <v>0.8021058318412929</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.7218227399462969</v>
+        <v>0.7215139621604942</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.3981227458635798</v>
+        <v>0.3949363374980442</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.512901205571084</v>
+        <v>0.5104789651223383</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.6925629402607028</v>
+        <v>0.6941853702415245</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.6557054923949155</v>
+        <v>0.6567672084294727</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.3815988546623083</v>
+        <v>0.3786079257231027</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.5092300418977969</v>
+        <v>0.5116602765739232</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.2142110004949805</v>
+        <v>0.2146826452338398</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1739287624610499</v>
+        <v>0.1735549498743091</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.2364753247175558</v>
+        <v>0.2331924874021628</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.6421647239367476</v>
+        <v>0.6429363503952431</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.3707952862856911</v>
+        <v>0.3689709423898958</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.2497425403830569</v>
+        <v>0.2490020268780949</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.3419093183580691</v>
+        <v>0.3392340967811338</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.5926790811644612</v>
+        <v>0.5859765112481548</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.3082861627245768</v>
+        <v>0.3069201650941785</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.2215555106619693</v>
+        <v>0.2262168707483354</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.2959066691027177</v>
+        <v>0.2962073813684813</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.6032411724706301</v>
+        <v>0.6003292448038634</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.298357412885337</v>
+        <v>0.2953457284067607</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.247507655195738</v>
+        <v>0.2465356095277687</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.3301464959055133</v>
+        <v>0.3310801943906681</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.7245878150446706</v>
+        <v>0.7247448604460814</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.4619461784544333</v>
+        <v>0.4604590554560714</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.333335399158616</v>
+        <v>0.330200027881076</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.4149473837682576</v>
+        <v>0.4124202318167885</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.6533435179025614</v>
+        <v>0.6516123033165577</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.3679651399353187</v>
+        <v>0.3666081118865067</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.2790533842871132</v>
+        <v>0.2787265713851256</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.3584566484254294</v>
+        <v>0.3595489577486237</v>
       </c>
     </row>
     <row r="10">
@@ -969,7 +969,7 @@
         <v>0.5516653185922092</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.3314980949863359</v>
+        <v>0.331498094986336</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.2221828495203911</v>
+        <v>0.222460275001165</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.4335783277137732</v>
+        <v>0.4320918957496735</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.4400558082142152</v>
+        <v>0.437812964946259</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.23202599942694</v>
+        <v>0.2314297279170234</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.3585231193762923</v>
+        <v>0.3539162610149415</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.604740949708475</v>
+        <v>0.6078720627656469</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.5615780873584606</v>
+        <v>0.5636761379738381</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.3375610067419869</v>
+        <v>0.3345962543845623</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.2999942451441712</v>
+        <v>0.3073082981724864</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.5390428229687393</v>
+        <v>0.5406813631673828</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.5105512041741708</v>
+        <v>0.515414277571282</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.2997299831934758</v>
+        <v>0.2999494793358377</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.3205098246981128</v>
+        <v>0.3254184374613468</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.5436622892907306</v>
+        <v>0.5418085798739909</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.5487468380767967</v>
+        <v>0.5445290634377616</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.3256037153985671</v>
+        <v>0.3279387337467705</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.4658721498211563</v>
+        <v>0.4623407936608961</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.7179751781380771</v>
+        <v>0.7136742969273325</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.6653500775397692</v>
+        <v>0.6647027367479341</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.4203505975364723</v>
+        <v>0.419633879634706</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.376507717229863</v>
+        <v>0.3811528877136907</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.6152531163498721</v>
+        <v>0.6167874254063166</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.5882162464582283</v>
+        <v>0.5881542464916814</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.3658352336579702</v>
+        <v>0.3598805526757483</v>
       </c>
     </row>
     <row r="13">
@@ -1093,7 +1093,7 @@
         <v>0.5418427795026342</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.4132888514217208</v>
+        <v>0.4132888514217207</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.4609402460345428</v>
@@ -1105,7 +1105,7 @@
         <v>0.4928070444562233</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.3680562238255464</v>
+        <v>0.3680562238255463</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.3619472527920885</v>
+        <v>0.36310030233316</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.5922074021620981</v>
+        <v>0.5893920199976382</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.3928252396227535</v>
+        <v>0.3905989761536078</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.2578023254954005</v>
+        <v>0.2518859789156616</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.4546052971943935</v>
+        <v>0.4546522951025722</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.6981380676397678</v>
+        <v>0.7018208811291574</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.4926694082516812</v>
+        <v>0.4906573475707167</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.3699195103942308</v>
+        <v>0.371413550289862</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.4232846517337823</v>
+        <v>0.4242074701383243</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.662245518766392</v>
+        <v>0.6616755634071508</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.4558417469523693</v>
+        <v>0.4583964954588959</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.3295524840143054</v>
+        <v>0.3291171019132503</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.4704497943139883</v>
+        <v>0.4703522574229156</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.6982016402694882</v>
+        <v>0.6972012290735276</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.4941138427803651</v>
+        <v>0.4942121360855773</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.380609494021275</v>
+        <v>0.3792574768230256</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.5582335371205284</v>
+        <v>0.5547071207538581</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.7927322210989468</v>
+        <v>0.7912748876253368</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.5956765863772973</v>
+        <v>0.5927814670038744</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.4636767294431715</v>
+        <v>0.4579508322608467</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.4941655273199996</v>
+        <v>0.4976119900308012</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.7321075561734783</v>
+        <v>0.7271826190131304</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.5337532529988146</v>
+        <v>0.5294358257196182</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.4052552254879913</v>
+        <v>0.4095267118047863</v>
       </c>
     </row>
     <row r="16">
@@ -1217,7 +1217,7 @@
         <v>0.8674255377194876</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.7494048354416294</v>
+        <v>0.7494048354416297</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.5993136603718174</v>
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.4078823533792417</v>
+        <v>0.4115108878409148</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.30604321944005</v>
+        <v>0.3053571296543086</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.8129836301263119</v>
+        <v>0.8140846717212631</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.6895214493622396</v>
+        <v>0.6845788009150278</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.530541538689274</v>
+        <v>0.5324049023843396</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.4306495279879137</v>
+        <v>0.4375813442144184</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.8313099045602456</v>
+        <v>0.8276062244402782</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.7835108353784922</v>
+        <v>0.7829522016274095</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.4884278292965915</v>
+        <v>0.4906904835702107</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.3860606167468975</v>
+        <v>0.3901744479775053</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.8380344305096975</v>
+        <v>0.8353094533550008</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.755705885807625</v>
+        <v>0.7578257261748622</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.5504174998433776</v>
+        <v>0.5524541620208843</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.4397531210770246</v>
+        <v>0.4424189245640261</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.9074131493140958</v>
+        <v>0.9073611112715089</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.8000625488652577</v>
+        <v>0.7996349834188857</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.6720235577729057</v>
+        <v>0.6700761819071414</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.5728940523531195</v>
+        <v>0.5717496661208334</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.9170263110519192</v>
+        <v>0.9176133802899979</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.8640872066847523</v>
+        <v>0.8656943489196461</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.5914662522620349</v>
+        <v>0.588924354279328</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.4840745836548087</v>
+        <v>0.4873886059830753</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.9020246807379378</v>
+        <v>0.9005799141447791</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.8246168203841724</v>
+        <v>0.8262135936121361</v>
       </c>
     </row>
     <row r="19">
@@ -1353,7 +1353,7 @@
         <v>0.3487484026018343</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.34261200986912</v>
+        <v>0.3426120098691199</v>
       </c>
       <c r="G19" s="5" t="n">
         <v>0.4654052943747773</v>
@@ -1365,7 +1365,7 @@
         <v>0.455404202809421</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.3769364432003379</v>
+        <v>0.3769364432003378</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.4041164759009592</v>
@@ -1377,7 +1377,7 @@
         <v>0.4030699891752886</v>
       </c>
       <c r="N19" s="5" t="n">
-        <v>0.3595659733140103</v>
+        <v>0.3595659733140104</v>
       </c>
     </row>
     <row r="20">
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.289575341085658</v>
+        <v>0.2867932053531341</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.4822768931658794</v>
+        <v>0.4822682716556419</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.2870189662731283</v>
+        <v>0.285360379958692</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.2926442444030118</v>
+        <v>0.2955753021748042</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.4061125886620314</v>
+        <v>0.40377160434409</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.5799557733073494</v>
+        <v>0.570091117098173</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.3986976896013554</v>
+        <v>0.3956085695190426</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.3309420676262846</v>
+        <v>0.3330130615156915</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.3634043820975961</v>
+        <v>0.3641615167317204</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.5473793560861374</v>
+        <v>0.5468326006121157</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.3628844683163148</v>
+        <v>0.359797363978426</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.3265130827881763</v>
+        <v>0.3260218233596447</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.4022540992203537</v>
+        <v>0.402784557937385</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.6027673112275104</v>
+        <v>0.6005812948608733</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.4074484788335943</v>
+        <v>0.4062490400695913</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.3937026075807938</v>
+        <v>0.3966083909401639</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.5218491859060705</v>
+        <v>0.526160029137789</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.6923284240297514</v>
+        <v>0.6862144519019178</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.5196295882389683</v>
+        <v>0.5202091854907986</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.4234431235425671</v>
+        <v>0.4254637798249833</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.4456369107543025</v>
+        <v>0.445766470611233</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.6283204772795922</v>
+        <v>0.6285522424740506</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.4463826279931945</v>
+        <v>0.4458266800973662</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.3943042875209362</v>
+        <v>0.3978805275987745</v>
       </c>
     </row>
     <row r="22">
@@ -1501,7 +1501,7 @@
         <v>0.5745994938367868</v>
       </c>
       <c r="J22" s="5" t="n">
-        <v>0.6316904685742253</v>
+        <v>0.6316904685742252</v>
       </c>
       <c r="K22" s="5" t="n">
         <v>0.4218657588304253</v>
@@ -1513,7 +1513,7 @@
         <v>0.5528725315393659</v>
       </c>
       <c r="N22" s="5" t="n">
-        <v>0.5748632280834453</v>
+        <v>0.5748632280834451</v>
       </c>
     </row>
     <row r="23">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.314242112713144</v>
+        <v>0.311827585210274</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.512648917925036</v>
+        <v>0.507437508144271</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.4904335460986185</v>
+        <v>0.4866206013965708</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.4697845078875346</v>
+        <v>0.4686759953738463</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.4500644076502381</v>
+        <v>0.4474032155143629</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.6142440859431362</v>
+        <v>0.615457200406113</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.5329350631108583</v>
+        <v>0.5361198602759647</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.5984044448871485</v>
+        <v>0.5986646876885892</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.3920898819310971</v>
+        <v>0.3922340022230478</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.5766488223110722</v>
+        <v>0.575742212812148</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.5242201129325993</v>
+        <v>0.5263987212984398</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.5474636388703821</v>
+        <v>0.547683257228726</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.3927468532859561</v>
+        <v>0.39474960537893</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.5901759187523595</v>
+        <v>0.5872651390479223</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.5714097281646029</v>
+        <v>0.5718369293529353</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.5600377839444153</v>
+        <v>0.5583735804348641</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.5283154253277661</v>
+        <v>0.5277929399279891</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.691346628028344</v>
+        <v>0.6912895705359471</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.6108655422749735</v>
+        <v>0.6097011960936137</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.6621953705477048</v>
+        <v>0.664367382637898</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.4493651041255116</v>
+        <v>0.4480376147451945</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.6324124345490791</v>
+        <v>0.6285668316198995</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.5791725413947048</v>
+        <v>0.5831897677124923</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.6032302550852071</v>
+        <v>0.6022613006337418</v>
       </c>
     </row>
     <row r="25">
@@ -1625,7 +1625,7 @@
         <v>0.541494821287241</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>0.5021115521591221</v>
+        <v>0.502111552159122</v>
       </c>
       <c r="G25" s="5" t="n">
         <v>0.5865608742128385</v>
@@ -1637,7 +1637,7 @@
         <v>0.5683420952457106</v>
       </c>
       <c r="J25" s="5" t="n">
-        <v>0.5946117215356067</v>
+        <v>0.5946117215356068</v>
       </c>
       <c r="K25" s="5" t="n">
         <v>0.5541218132769747</v>
@@ -1660,40 +1660,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.4828504899642399</v>
+        <v>0.4857357349136079</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.4710830131707551</v>
+        <v>0.4686881654853091</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.5067083306502808</v>
+        <v>0.5049138130750144</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.4628394106006826</v>
+        <v>0.4638795522788347</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.5507719530637145</v>
+        <v>0.5487194917083347</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.5852829278133949</v>
+        <v>0.5834953879816756</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.5332973299091034</v>
+        <v>0.5329824341468998</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.5636237152829087</v>
+        <v>0.5642117427505953</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.5266922956185011</v>
+        <v>0.5267351896288904</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.5369817268334919</v>
+        <v>0.5387968973449972</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.5305358722331915</v>
+        <v>0.5289447300403489</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.5245373604454349</v>
+        <v>0.5249054139941739</v>
       </c>
     </row>
     <row r="27">
@@ -1704,40 +1704,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.5532085770905523</v>
+        <v>0.5621494049779703</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.5463049995515525</v>
+        <v>0.5426006719514814</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.5808298346858209</v>
+        <v>0.5797133078887776</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.5367749774452348</v>
+        <v>0.5357692558741368</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.6213417028126181</v>
+        <v>0.623027623396618</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.6557826896152104</v>
+        <v>0.6544209968868557</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.6044960366827615</v>
+        <v>0.6059616596206917</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.6276586629369556</v>
+        <v>0.6258927858150518</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.5793662751235374</v>
+        <v>0.5788598129828377</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.589062679970352</v>
+        <v>0.5920837995166768</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.5839476810606301</v>
+        <v>0.5829890533273855</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.5727688486665864</v>
+        <v>0.574309338051896</v>
       </c>
     </row>
     <row r="28">
@@ -1761,7 +1761,7 @@
         <v>0.4815150355797339</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>0.4184748211465575</v>
+        <v>0.4184748211465576</v>
       </c>
       <c r="G28" s="5" t="n">
         <v>0.5418144492936345</v>
@@ -1773,7 +1773,7 @@
         <v>0.5484084415923026</v>
       </c>
       <c r="J28" s="5" t="n">
-        <v>0.5076364165484988</v>
+        <v>0.5076364165484987</v>
       </c>
       <c r="K28" s="5" t="n">
         <v>0.487851131820891</v>
@@ -1785,7 +1785,7 @@
         <v>0.5156856892484182</v>
       </c>
       <c r="N28" s="5" t="n">
-        <v>0.4642919476804128</v>
+        <v>0.4642919476804127</v>
       </c>
     </row>
     <row r="29">
@@ -1796,40 +1796,40 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.414692007002441</v>
+        <v>0.4157683260250113</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.4727619155116248</v>
+        <v>0.4720079417561156</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.4647076255515625</v>
+        <v>0.4626602087230561</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.4012554461106523</v>
+        <v>0.4007775378943373</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.5247719197396368</v>
+        <v>0.5231049842803942</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.601905128453436</v>
+        <v>0.6006790568844488</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.5316105152113435</v>
+        <v>0.5300729822659244</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.493183562784454</v>
+        <v>0.4923339000398586</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.4761293522187702</v>
+        <v>0.4760762846735229</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>0.5434508822586638</v>
+        <v>0.5428446471638374</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>0.5034957511439434</v>
+        <v>0.5038563021554011</v>
       </c>
       <c r="N29" s="5" t="n">
-        <v>0.4528728016253796</v>
+        <v>0.452450867742862</v>
       </c>
     </row>
     <row r="30">
@@ -1840,40 +1840,40 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.4500762056060974</v>
+        <v>0.45049844778864</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.5075103626492773</v>
+        <v>0.5077559641525569</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.500004738047739</v>
+        <v>0.4983040676580651</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.4371058586141767</v>
+        <v>0.4360059590654434</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.5589122367738513</v>
+        <v>0.5583703995645004</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.6359387755816222</v>
+        <v>0.6346222743435425</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.5656768869817007</v>
+        <v>0.5652430059532721</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.522854044632561</v>
+        <v>0.5214599813820711</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.5007538817860366</v>
+        <v>0.5003090539878823</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>0.5679803352596084</v>
+        <v>0.567826732978135</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>0.5280568980529647</v>
+        <v>0.5267258262939751</v>
       </c>
       <c r="N30" s="5" t="n">
-        <v>0.4763871265550031</v>
+        <v>0.4747944123894549</v>
       </c>
     </row>
     <row r="31">
@@ -2148,40 +2148,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>97597</v>
+        <v>94414</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>147590</v>
+        <v>147209</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>148056</v>
+        <v>144717</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>92329</v>
+        <v>91181</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>119379</v>
+        <v>119746</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>198049</v>
+        <v>197667</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>176863</v>
+        <v>176235</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>98501</v>
+        <v>96790</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>225552</v>
+        <v>226350</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>356046</v>
+        <v>354184</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>332629</v>
+        <v>333632</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>197850</v>
+        <v>196935</v>
       </c>
     </row>
     <row r="7">
@@ -2192,40 +2192,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>129100</v>
+        <v>127627</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>182929</v>
+        <v>181752</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>183101</v>
+        <v>181244</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>126045</v>
+        <v>124542</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>152587</v>
+        <v>153707</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>229823</v>
+        <v>230401</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>208392</v>
+        <v>208303</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>125831</v>
+        <v>124824</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>273811</v>
+        <v>272518</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>403060</v>
+        <v>404004</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>381925</v>
+        <v>382543</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>242279</v>
+        <v>240380</v>
       </c>
     </row>
     <row r="8">
@@ -2328,40 +2328,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>251089</v>
+        <v>252287</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>108289</v>
+        <v>108528</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>87412</v>
+        <v>87224</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>125251</v>
+        <v>123512</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>323618</v>
+        <v>324007</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>194210</v>
+        <v>193254</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>130636</v>
+        <v>130249</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>186352</v>
+        <v>184893</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>590915</v>
+        <v>584233</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>317316</v>
+        <v>315910</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>227240</v>
+        <v>232021</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>318008</v>
+        <v>318331</v>
       </c>
     </row>
     <row r="11">
@@ -2372,40 +2372,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>297443</v>
+        <v>296007</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>150828</v>
+        <v>149305</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>124391</v>
+        <v>123903</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>174865</v>
+        <v>175359</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>365155</v>
+        <v>365234</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>241951</v>
+        <v>241172</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>174362</v>
+        <v>172722</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>226160</v>
+        <v>224782</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>651399</v>
+        <v>649673</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>378744</v>
+        <v>377347</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>286214</v>
+        <v>285878</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>385229</v>
+        <v>386403</v>
       </c>
     </row>
     <row r="12">
@@ -2508,40 +2508,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>70842</v>
+        <v>70931</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>140499</v>
+        <v>140018</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>140186</v>
+        <v>139472</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>72873</v>
+        <v>72685</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>120253</v>
+        <v>118708</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>206229</v>
+        <v>207297</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>188864</v>
+        <v>189569</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>118625</v>
+        <v>117583</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>196274</v>
+        <v>201059</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>358499</v>
+        <v>359589</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>334347</v>
+        <v>337531</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>199467</v>
+        <v>199613</v>
       </c>
     </row>
     <row r="15">
@@ -2552,40 +2552,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>102193</v>
+        <v>103758</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>176172</v>
+        <v>175571</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>174812</v>
+        <v>173468</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>102263</v>
+        <v>102996</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>156259</v>
+        <v>155075</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>244844</v>
+        <v>243377</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>223763</v>
+        <v>223546</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>147719</v>
+        <v>147467</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>246333</v>
+        <v>249372</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>409184</v>
+        <v>410204</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>385208</v>
+        <v>385167</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>243460</v>
+        <v>239497</v>
       </c>
     </row>
     <row r="16">
@@ -2688,40 +2688,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>129820</v>
+        <v>130234</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>221475</v>
+        <v>220422</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>145331</v>
+        <v>144508</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>94392</v>
+        <v>92226</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>168866</v>
+        <v>168883</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>271541</v>
+        <v>272974</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>190802</v>
+        <v>190023</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>154040</v>
+        <v>154663</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>309052</v>
+        <v>309725</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>505249</v>
+        <v>504814</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>345185</v>
+        <v>347119</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>257894</v>
+        <v>257553</v>
       </c>
     </row>
     <row r="19">
@@ -2732,40 +2732,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>168737</v>
+        <v>168702</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>261115</v>
+        <v>260741</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>182804</v>
+        <v>182841</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>139357</v>
+        <v>138862</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>207359</v>
+        <v>206049</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>308334</v>
+        <v>307767</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>230695</v>
+        <v>229574</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>193082</v>
+        <v>190698</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>360804</v>
+        <v>363320</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>558549</v>
+        <v>554792</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>404183</v>
+        <v>400914</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>317135</v>
+        <v>320478</v>
       </c>
     </row>
     <row r="20">
@@ -2868,40 +2868,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>82926</v>
+        <v>83663</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>65070</v>
+        <v>64924</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>171719</v>
+        <v>171952</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>141470</v>
+        <v>140456</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>110177</v>
+        <v>110563</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>94567</v>
+        <v>96089</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>181714</v>
+        <v>180904</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>176397</v>
+        <v>176272</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>200732</v>
+        <v>201662</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>166859</v>
+        <v>168637</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>360194</v>
+        <v>359023</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>325187</v>
+        <v>326099</v>
       </c>
     </row>
     <row r="23">
@@ -2912,40 +2912,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>111904</v>
+        <v>112318</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>93499</v>
+        <v>94066</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>191665</v>
+        <v>191654</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>164150</v>
+        <v>164063</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>139558</v>
+        <v>139153</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>125802</v>
+        <v>125551</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>200450</v>
+        <v>200578</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>194538</v>
+        <v>194900</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>243078</v>
+        <v>242034</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>209221</v>
+        <v>210654</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>387697</v>
+        <v>387076</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>354840</v>
+        <v>355527</v>
       </c>
     </row>
     <row r="24">
@@ -3048,40 +3048,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>78420</v>
+        <v>77667</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>132135</v>
+        <v>132132</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>75521</v>
+        <v>75085</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>79081</v>
+        <v>79873</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>112958</v>
+        <v>112307</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>162406</v>
+        <v>159643</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>108890</v>
+        <v>108047</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>87286</v>
+        <v>87832</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>199493</v>
+        <v>199908</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>303255</v>
+        <v>302952</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>194592</v>
+        <v>192937</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>174351</v>
+        <v>174089</v>
       </c>
     </row>
     <row r="27">
@@ -3092,40 +3092,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>108935</v>
+        <v>109078</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>165147</v>
+        <v>164548</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>107209</v>
+        <v>106893</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>106390</v>
+        <v>107175</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>145149</v>
+        <v>146348</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>193873</v>
+        <v>192161</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>141919</v>
+        <v>142077</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>111683</v>
+        <v>112216</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>244635</v>
+        <v>244706</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>348097</v>
+        <v>348225</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>239367</v>
+        <v>239069</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>210551</v>
+        <v>212460</v>
       </c>
     </row>
     <row r="28">
@@ -3228,40 +3228,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>193267</v>
+        <v>191782</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>339778</v>
+        <v>336323</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>321998</v>
+        <v>319495</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>335717</v>
+        <v>334925</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>287240</v>
+        <v>285541</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>426195</v>
+        <v>427037</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>368415</v>
+        <v>370616</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>460390</v>
+        <v>460590</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>491385</v>
+        <v>491566</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>782305</v>
+        <v>781075</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>706571</v>
+        <v>709508</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>812426</v>
+        <v>812752</v>
       </c>
     </row>
     <row r="31">
@@ -3272,40 +3272,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>241550</v>
+        <v>242782</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>391162</v>
+        <v>389232</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>375164</v>
+        <v>375444</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>400214</v>
+        <v>399025</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>337181</v>
+        <v>336847</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>479693</v>
+        <v>479653</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>422288</v>
+        <v>421483</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>509468</v>
+        <v>511139</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>563165</v>
+        <v>561501</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>857957</v>
+        <v>852740</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>780639</v>
+        <v>786053</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>895183</v>
+        <v>893745</v>
       </c>
     </row>
     <row r="32">
@@ -3408,40 +3408,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>359142</v>
+        <v>361288</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>367020</v>
+        <v>365154</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>394514</v>
+        <v>393117</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>368589</v>
+        <v>369417</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>431536</v>
+        <v>429928</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>482187</v>
+        <v>480714</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>440593</v>
+        <v>440332</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>466935</v>
+        <v>467422</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>804420</v>
+        <v>804486</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>860755</v>
+        <v>863665</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>851377</v>
+        <v>848824</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>852277</v>
+        <v>852875</v>
       </c>
     </row>
     <row r="35">
@@ -3452,40 +3452,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>411474</v>
+        <v>418124</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>425625</v>
+        <v>422739</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>452224</v>
+        <v>451355</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>427469</v>
+        <v>426668</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>486828</v>
+        <v>488149</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>540269</v>
+        <v>539147</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>499415</v>
+        <v>500626</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>519984</v>
+        <v>518522</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>884870</v>
+        <v>884096</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>944239</v>
+        <v>949081</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>937090</v>
+        <v>935552</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>930644</v>
+        <v>933147</v>
       </c>
     </row>
     <row r="36">
@@ -3588,40 +3588,40 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>1358756</v>
+        <v>1362283</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>1620051</v>
+        <v>1617467</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>1577380</v>
+        <v>1570431</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>1410454</v>
+        <v>1408774</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>1773308</v>
+        <v>1767675</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>2141764</v>
+        <v>2137402</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>1884316</v>
+        <v>1878866</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>1832486</v>
+        <v>1829329</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>3168994</v>
+        <v>3168640</v>
       </c>
       <c r="L38" s="6" t="n">
-        <v>3796052</v>
+        <v>3791818</v>
       </c>
       <c r="M38" s="6" t="n">
-        <v>3493703</v>
+        <v>3496204</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>3274601</v>
+        <v>3271550</v>
       </c>
     </row>
     <row r="39">
@@ -3632,40 +3632,40 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>1474694</v>
+        <v>1476078</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>1739126</v>
+        <v>1739967</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>1697191</v>
+        <v>1691418</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>1536472</v>
+        <v>1532606</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>1888675</v>
+        <v>1886844</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>2262867</v>
+        <v>2258182</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>2005065</v>
+        <v>2003528</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>1942731</v>
+        <v>1937551</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>3332888</v>
+        <v>3329927</v>
       </c>
       <c r="L39" s="6" t="n">
-        <v>3967393</v>
+        <v>3966320</v>
       </c>
       <c r="M39" s="6" t="n">
-        <v>3664130</v>
+        <v>3654894</v>
       </c>
       <c r="N39" s="6" t="n">
-        <v>3444627</v>
+        <v>3433110</v>
       </c>
     </row>
     <row r="40">
